--- a/데이터베이스명세서.xlsx
+++ b/데이터베이스명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tjg_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370D6F2-18C2-4B52-AD60-900C8288B23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7545A9-CB09-42E5-9B53-9E3451DAD6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFF4FBFF-EE49-47EE-9ED2-967415C424A0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="323">
   <si>
     <t>Not Null</t>
   </si>
@@ -174,1016 +174,1023 @@
     <t>discount_amount</t>
   </si>
   <si>
+    <t>odate</t>
+  </si>
+  <si>
+    <t>order_code</t>
+  </si>
+  <si>
+    <t>receiver_name</t>
+  </si>
+  <si>
+    <t>receiver_phone</t>
+  </si>
+  <si>
+    <t>shipping_fee</t>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>delivery_status</t>
+  </si>
+  <si>
+    <t>enum('DELIVERED','READY','SHIPPING')</t>
+  </si>
+  <si>
+    <t>delivered_at</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>shipping_at</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>image_url_name</t>
+  </si>
+  <si>
+    <t>is_hot_deal</t>
+  </si>
+  <si>
+    <t>is_member_special</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>product_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>product_description_image</t>
+  </si>
+  <si>
+    <t>product_information_image</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>allergy_info</t>
+  </si>
+  <si>
+    <t>seller</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>category_sub_id</t>
+  </si>
+  <si>
+    <t>is_private</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>cook_time</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>longtext</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>review_count</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>varchar(300)</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>youtube_url</t>
+  </si>
+  <si>
+    <t>sub_category_id</t>
+  </si>
+  <si>
+    <t>recipe_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>expiry_date</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>is_best</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>viewed_at</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>zonecode</t>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+  </si>
+  <si>
+    <t>컬럼명</t>
+  </si>
+  <si>
+    <t>타입 및 길이</t>
+  </si>
+  <si>
+    <t>기본값</t>
+  </si>
+  <si>
+    <t>제약 조건</t>
+  </si>
+  <si>
+    <t>컬럼ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면표시순서</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용유무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인카테고리 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브카테고리 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브카테고리명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인카테고리명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰아이디</t>
+  </si>
+  <si>
+    <t>할인율</t>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송타입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 고정 여부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 제목</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 내용</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_main</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_sub</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문코드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 사람명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 사람 휴대폰번호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송비 무료 유무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송상태</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착예정시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송출발시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫딜유무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버십유무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보이미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성정보이미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알레르기정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량/용량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매단위</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내사항</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브카테고리아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품QNA아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀글유무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피내용</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피이미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브경로</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피재료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피순서</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가설명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피팁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 내용</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>만료 시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트유무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문이력아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_qna</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_review</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh_tokens</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviews</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_coupon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_view_log</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인카테고리 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브카테고리 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 QNA 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 리뷰 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리프레시 토큰 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리뷰 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 쿠폰 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저별 상품 선택 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_description</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송설명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블설명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명(영문)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 카테고리 정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브 카테고리 정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 장바구니에 저장한 상품을 담아두는 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 이력을 보존하는 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 이력에 대해 주문한 상품을 보존하는 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품별 QNA를 보존하는 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리프레시 토큰 정보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상퓸별 리뷰를 보존하는 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피별 리뷰를 보존하는 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저별 쿠폰 정보 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저별 클릭한 상품의 이력을 보존하는 테이블(상품 추천을 위한 테이블)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 정보 테이블</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candy Project DB리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table cart (cid bigint not null auto_increment, added_at datetime(6) not null, qty integer not null, ppk bigint not null, upk bigint not null, primary key (cid)) engine=InnoDB</t>
+  </si>
+  <si>
+    <t>create table user_view_log (id bigint not null auto_increment, ppk bigint, qty integer, sub_category_id bigint, upk bigint, viewed_at datetime(6), primary key (id)) engine=InnoDB</t>
+  </si>
+  <si>
+    <t>alter table cart add constraint FKi5rep9miokyv1vywdoq4lepid foreign key (ppk) references product (id)</t>
+  </si>
+  <si>
+    <t>alter table cart add constraint FK1vacpri40ue82b7n3yxojpgnn foreign key (upk) references users (id)</t>
+  </si>
+  <si>
+    <t>alter table order_detail add constraint FKrws2q0si6oyd6il8gqe2aennc foreign key (order_id) references orders (id)</t>
+  </si>
+  <si>
+    <t>alter table order_detail add constraint FK7suagr7t2yj2olsgpkv7ml0ub foreign key (ppk) references product (id)</t>
+  </si>
+  <si>
+    <t>alter table product add constraint FK3tqdw6fsg0k99ouxxeftuwmr1 foreign key (category_sub_id) references category_sub (id)</t>
+  </si>
+  <si>
+    <t>alter table product add constraint FK4a88lyft7u61iher2m18r8hqx foreign key (upk) references users (id)</t>
+  </si>
+  <si>
+    <t>alter table recipe add constraint FKon2xvw5of2nmyqaf8v5w1k72d foreign key (sub_category_id) references category_sub (id)</t>
+  </si>
+  <si>
+    <t>alter table recipe_review add constraint FKgvv15ffc22axtjognae8076hq foreign key (user_id) references users (id)</t>
+  </si>
+  <si>
+    <t>alter table user_coupon add constraint FK23vpkw483hhbe77dgvimcipf4 foreign key (coupon_id) references coupon (coupon_id)</t>
+  </si>
+  <si>
+    <t>alter table user_coupon add constraint FKgqnogpxxp29atogg1d2fv9q0o foreign key (user_id) references users (id)</t>
+  </si>
+  <si>
+    <t>테이블 생성 쿼리 및 외래키 설정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table category_main (id bigint not null auto_increment, display_order integer, is_used bit not null, name varchar(50) not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table category_sub (id bigint not null auto_increment, display_order integer, is_used bit not null, name varchar(50) not null, main_id bigint, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter table category_sub add constraint FK6tem59mqj94i5475b4gaxpdvs foreign key (main_id) references category_main (id)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table coupon (coupon_id bigint not null, coupon_dc_rate integer, coupon_qty integer, primary key (coupon_id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table delivery (del_type integer not null auto_increment, del_description varchar(500), del_name varchar(50), primary key (del_type)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table notice (id bigint not null auto_increment, content TEXT not null, created_at datetime(6), is_pinned TINYINT(1), title varchar(200) not null, writer varchar(30), primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table order_detail (id bigint not null auto_increment, ppk bigint, price integer not null, product_name varchar(255), qty integer not null, order_id bigint, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table product (id bigint not null auto_increment, allergy_info varchar(255), brand_name varchar(100), count integer not null, dc integer not null, del_type integer not null, description varchar(500), image_url varchar(255), image_url_name varchar(100), is_hot_deal bit not null, is_member_special bit not null, notes varchar(255), origin varchar(100), pid varchar(20) not null, price integer not null, product_date date, product_description_image varchar(255), product_information_image varchar(255), product_name varchar(200), seller varchar(255), unit varchar(255), weight varchar(255), category_sub_id bigint, upk bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table orders (id bigint not null auto_increment, address1 varchar(255), address2 varchar(255), delivered_at datetime(6), delivery_status enum ('DELIVERED','READY','SHIPPING'), discount_amount integer not null, eta datetime(6), memo varchar(255), odate datetime(6), order_code varchar(50) not null, receiver_name varchar(255), receiver_phone varchar(255), shipping_at datetime(6), shipping_fee integer not null, tid varchar(50), total_amount integer not null, upk bigint, zipcode varchar(255), primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table product_qna (id bigint not null auto_increment, content varchar(255), date datetime(6), is_private bit, ppk bigint not null, status varchar(50), title varchar(255) not null, upk bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table recipe (id bigint not null auto_increment, content TEXT, cook_time integer, created_at datetime(6), difficulty varchar(20), image_url varchar(255), ingredients longtext, rating DOUBLE DEFAULT 0, review_count INT DEFAULT 0, steps longtext, summary varchar(300), tips varchar(300), title varchar(150) not null, updated_at datetime(6), youtube_url varchar(255), sub_category_id bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table recipe_review (id bigint not null auto_increment, content TEXT, created_at datetime(6), rating float(53) not null, recipe_id bigint not null, user_id bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table refresh_tokens (id bigint not null auto_increment, expiry_date datetime(6) not null, token varchar(64) not null, user_id bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter table recipe_review add constraint FKky1nx8d7m557dpa96gi3ftv5n foreign key (recipe_id) references recipe (id)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table reviews (id bigint not null auto_increment, content TEXT, date varchar(20), images JSON, is_best bit not null, likes integer not null, ppk bigint not null, product_name varchar(200), tags JSON, title varchar(255), upk bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table user_coupon (id bigint not null auto_increment, is_used bit not null, qty integer, coupon_id bigint not null, user_id bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table users (id bigint not null auto_increment, address varchar(255), birthday varchar(20), email varchar(255) not null, gender varchar(1), name varchar(100) not null, password varchar(255) not null, phone varchar(20), provider varchar(20), recommendation varchar(100), user_id varchar(50) not null, zonecode varchar(5), primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천인 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>memo</t>
-  </si>
-  <si>
-    <t>odate</t>
-  </si>
-  <si>
-    <t>order_code</t>
-  </si>
-  <si>
-    <t>receiver_name</t>
-  </si>
-  <si>
-    <t>receiver_phone</t>
-  </si>
-  <si>
-    <t>shipping_fee</t>
-  </si>
-  <si>
-    <t>tid</t>
-  </si>
-  <si>
-    <t>total_amount</t>
-  </si>
-  <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>delivery_status</t>
-  </si>
-  <si>
-    <t>enum('DELIVERED','READY','SHIPPING')</t>
-  </si>
-  <si>
-    <t>delivered_at</t>
-  </si>
-  <si>
-    <t>eta</t>
-  </si>
-  <si>
-    <t>shipping_at</t>
-  </si>
-  <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>image_url</t>
-  </si>
-  <si>
-    <t>image_url_name</t>
-  </si>
-  <si>
-    <t>is_hot_deal</t>
-  </si>
-  <si>
-    <t>is_member_special</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>UNI</t>
-  </si>
-  <si>
-    <t>product_date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>product_description_image</t>
-  </si>
-  <si>
-    <t>product_information_image</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>allergy_info</t>
-  </si>
-  <si>
-    <t>seller</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>category_sub_id</t>
-  </si>
-  <si>
-    <t>is_private</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>cook_time</t>
-  </si>
-  <si>
-    <t>difficulty</t>
-  </si>
-  <si>
-    <t>ingredients</t>
-  </si>
-  <si>
-    <t>longtext</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>review_count</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>varchar(300)</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>varchar(150)</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>youtube_url</t>
-  </si>
-  <si>
-    <t>sub_category_id</t>
-  </si>
-  <si>
-    <t>recipe_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>expiry_date</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-  </si>
-  <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>is_best</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>viewed_at</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>varchar(1)</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>provider</t>
-  </si>
-  <si>
-    <t>recommendation</t>
-  </si>
-  <si>
-    <t>zonecode</t>
-  </si>
-  <si>
-    <t>varchar(5)</t>
-  </si>
-  <si>
-    <t>컬럼명</t>
-  </si>
-  <si>
-    <t>타입 및 길이</t>
-  </si>
-  <si>
-    <t>기본값</t>
-  </si>
-  <si>
-    <t>제약 조건</t>
-  </si>
-  <si>
-    <t>컬럼ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면표시순서</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용유무</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인카테고리 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브카테고리 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브카테고리명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인카테고리명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰아이디</t>
-  </si>
-  <si>
-    <t>할인율</t>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송타입</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 고정 여부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지 제목</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지 내용</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_main</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_sub</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>coupon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 수량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문일</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세주소</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문코드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는 사람명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는 사람 휴대폰번호</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송비 무료 유무</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>총가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송상태</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송완료시간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>도착예정시간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송출발시간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>???????</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>??????</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품이미지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품이미지명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫딜유무</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>멤버십유무</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>원산지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품코드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세정보이미지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성정보이미지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>알레르기정보</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>중량/용량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매단위</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>안내사항</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브카테고리아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품QNA아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀글유무</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피내용</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조리시간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피이미지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유튜브경로</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>난이도</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피재료</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피순서</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가설명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피팁</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정일</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 내용</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>토큰 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>만료 시간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>토큰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스트유무</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요 수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>태그</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문이력아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>암호화</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>users</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>?????</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_detail</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>orders</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>product</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_qna</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_review</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>refresh_tokens</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviews</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_coupon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_view_log</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송정보 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인카테고리 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브카테고리 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 QNA 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피 리뷰 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리프레시 토큰 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 리뷰 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 쿠폰 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저별 상품 선택 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_description</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송설명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(500)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블설명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명(영문)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 카테고리 정보</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브 카테고리 정보</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 정보</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 정보</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 정보</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 장바구니에 저장한 상품을 담아두는 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 이력을 보존하는 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 이력에 대해 주문한 상품을 보존하는 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 정보</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피 정보</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품별 QNA를 보존하는 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리프레시 토큰 정보</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상퓸별 리뷰를 보존하는 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피별 리뷰를 보존하는 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저별 쿠폰 정보 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저별 클릭한 상품의 이력을 보존하는 테이블(상품 추천을 위한 테이블)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 정보 테이블</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Candy Project DB리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table cart (cid bigint not null auto_increment, added_at datetime(6) not null, qty integer not null, ppk bigint not null, upk bigint not null, primary key (cid)) engine=InnoDB</t>
-  </si>
-  <si>
-    <t>create table user_view_log (id bigint not null auto_increment, ppk bigint, qty integer, sub_category_id bigint, upk bigint, viewed_at datetime(6), primary key (id)) engine=InnoDB</t>
-  </si>
-  <si>
-    <t>alter table cart add constraint FKi5rep9miokyv1vywdoq4lepid foreign key (ppk) references product (id)</t>
-  </si>
-  <si>
-    <t>alter table cart add constraint FK1vacpri40ue82b7n3yxojpgnn foreign key (upk) references users (id)</t>
-  </si>
-  <si>
-    <t>alter table order_detail add constraint FKrws2q0si6oyd6il8gqe2aennc foreign key (order_id) references orders (id)</t>
-  </si>
-  <si>
-    <t>alter table order_detail add constraint FK7suagr7t2yj2olsgpkv7ml0ub foreign key (ppk) references product (id)</t>
-  </si>
-  <si>
-    <t>alter table product add constraint FK3tqdw6fsg0k99ouxxeftuwmr1 foreign key (category_sub_id) references category_sub (id)</t>
-  </si>
-  <si>
-    <t>alter table product add constraint FK4a88lyft7u61iher2m18r8hqx foreign key (upk) references users (id)</t>
-  </si>
-  <si>
-    <t>alter table recipe add constraint FKon2xvw5of2nmyqaf8v5w1k72d foreign key (sub_category_id) references category_sub (id)</t>
-  </si>
-  <si>
-    <t>alter table recipe_review add constraint FKgvv15ffc22axtjognae8076hq foreign key (user_id) references users (id)</t>
-  </si>
-  <si>
-    <t>alter table user_coupon add constraint FK23vpkw483hhbe77dgvimcipf4 foreign key (coupon_id) references coupon (coupon_id)</t>
-  </si>
-  <si>
-    <t>alter table user_coupon add constraint FKgqnogpxxp29atogg1d2fv9q0o foreign key (user_id) references users (id)</t>
-  </si>
-  <si>
-    <t>테이블 생성 쿼리 및 외래키 설정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table category_main (id bigint not null auto_increment, display_order integer, is_used bit not null, name varchar(50) not null, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table category_sub (id bigint not null auto_increment, display_order integer, is_used bit not null, name varchar(50) not null, main_id bigint, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>alter table category_sub add constraint FK6tem59mqj94i5475b4gaxpdvs foreign key (main_id) references category_main (id)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table coupon (coupon_id bigint not null, coupon_dc_rate integer, coupon_qty integer, primary key (coupon_id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table delivery (del_type integer not null auto_increment, del_description varchar(500), del_name varchar(50), primary key (del_type)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table notice (id bigint not null auto_increment, content TEXT not null, created_at datetime(6), is_pinned TINYINT(1), title varchar(200) not null, writer varchar(30), primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table order_detail (id bigint not null auto_increment, ppk bigint, price integer not null, product_name varchar(255), qty integer not null, order_id bigint, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table product (id bigint not null auto_increment, allergy_info varchar(255), brand_name varchar(100), count integer not null, dc integer not null, del_type integer not null, description varchar(500), image_url varchar(255), image_url_name varchar(100), is_hot_deal bit not null, is_member_special bit not null, notes varchar(255), origin varchar(100), pid varchar(20) not null, price integer not null, product_date date, product_description_image varchar(255), product_information_image varchar(255), product_name varchar(200), seller varchar(255), unit varchar(255), weight varchar(255), category_sub_id bigint, upk bigint not null, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table orders (id bigint not null auto_increment, address1 varchar(255), address2 varchar(255), delivered_at datetime(6), delivery_status enum ('DELIVERED','READY','SHIPPING'), discount_amount integer not null, eta datetime(6), memo varchar(255), odate datetime(6), order_code varchar(50) not null, receiver_name varchar(255), receiver_phone varchar(255), shipping_at datetime(6), shipping_fee integer not null, tid varchar(50), total_amount integer not null, upk bigint, zipcode varchar(255), primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table product_qna (id bigint not null auto_increment, content varchar(255), date datetime(6), is_private bit, ppk bigint not null, status varchar(50), title varchar(255) not null, upk bigint not null, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table recipe (id bigint not null auto_increment, content TEXT, cook_time integer, created_at datetime(6), difficulty varchar(20), image_url varchar(255), ingredients longtext, rating DOUBLE DEFAULT 0, review_count INT DEFAULT 0, steps longtext, summary varchar(300), tips varchar(300), title varchar(150) not null, updated_at datetime(6), youtube_url varchar(255), sub_category_id bigint not null, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table recipe_review (id bigint not null auto_increment, content TEXT, created_at datetime(6), rating float(53) not null, recipe_id bigint not null, user_id bigint not null, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table refresh_tokens (id bigint not null auto_increment, expiry_date datetime(6) not null, token varchar(64) not null, user_id bigint not null, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>alter table recipe_review add constraint FKky1nx8d7m557dpa96gi3ftv5n foreign key (recipe_id) references recipe (id)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table reviews (id bigint not null auto_increment, content TEXT, date varchar(20), images JSON, is_best bit not null, likes integer not null, ppk bigint not null, product_name varchar(200), tags JSON, title varchar(255), upk bigint not null, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table user_coupon (id bigint not null auto_increment, is_used bit not null, qty integer, coupon_id bigint not null, user_id bigint not null, primary key (id)) engine=InnoDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table users (id bigint not null auto_increment, address varchar(255), birthday varchar(20), email varchar(255) not null, gender varchar(1), name varchar(100) not null, password varchar(255) not null, phone varchar(20), provider varchar(20), recommendation varchar(100), user_id varchar(50) not null, zonecode varchar(5), primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 고유 번호</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1378,7 +1385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1561,12 +1568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1977,9 +1978,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1989,38 +1987,41 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2395,254 +2396,254 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="B2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2695,21 +2696,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -2718,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -2729,7 +2730,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -2749,13 +2750,13 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -2768,10 +2769,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -2787,10 +2788,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -2806,10 +2807,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
@@ -2825,13 +2826,13 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -2844,10 +2845,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
@@ -2863,10 +2864,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -2882,13 +2883,13 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
@@ -2901,19 +2902,19 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>7</v>
@@ -2925,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -2941,13 +2942,13 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -2960,10 +2961,10 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>40</v>
@@ -2979,10 +2980,10 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
@@ -3001,7 +3002,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
@@ -3017,10 +3018,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -3039,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -3057,10 +3058,10 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>40</v>
@@ -3076,10 +3077,10 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>40</v>
@@ -3095,10 +3096,10 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>40</v>
@@ -3114,10 +3115,10 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>40</v>
@@ -3133,10 +3134,10 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>40</v>
@@ -3155,7 +3156,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -3173,10 +3174,10 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>4</v>
@@ -3193,24 +3194,24 @@
       <c r="H28" s="1"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3241,21 +3242,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -3264,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -3275,7 +3276,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -3295,10 +3296,10 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -3314,10 +3315,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -3336,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -3354,10 +3355,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -3376,7 +3377,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>40</v>
@@ -3395,7 +3396,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -3416,7 +3417,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>40</v>
@@ -3431,14 +3432,14 @@
       <c r="H12" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3469,21 +3470,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -3492,10 +3493,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -3503,7 +3504,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -3526,7 +3527,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -3542,10 +3543,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -3564,7 +3565,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -3580,13 +3581,13 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -3599,10 +3600,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>40</v>
@@ -3618,13 +3619,13 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -3637,13 +3638,13 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
@@ -3656,10 +3657,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -3675,13 +3676,13 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -3694,13 +3695,13 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -3713,13 +3714,13 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -3735,10 +3736,10 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
@@ -3751,10 +3752,10 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -3770,10 +3771,10 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -3789,10 +3790,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>4</v>
@@ -3809,19 +3810,19 @@
       <c r="H20" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3852,21 +3853,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -3875,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -3886,7 +3887,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -3909,7 +3910,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -3928,7 +3929,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -3944,13 +3945,13 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -3963,10 +3964,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -3984,10 +3985,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -4004,24 +4005,24 @@
       <c r="H10" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4052,21 +4053,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -4075,10 +4076,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -4086,7 +4087,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -4106,10 +4107,10 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -4125,19 +4126,19 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -4146,10 +4147,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -4164,14 +4165,14 @@
       <c r="H8" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4202,21 +4203,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -4225,10 +4226,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -4236,7 +4237,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -4259,7 +4260,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -4275,13 +4276,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
@@ -4294,13 +4295,13 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -4313,10 +4314,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -4332,10 +4333,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -4354,7 +4355,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -4375,7 +4376,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
@@ -4391,13 +4392,13 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
@@ -4413,7 +4414,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>40</v>
@@ -4432,7 +4433,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -4449,14 +4450,14 @@
       <c r="H15" s="1"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4487,21 +4488,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -4510,10 +4511,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -4521,7 +4522,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -4544,7 +4545,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -4563,7 +4564,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -4581,10 +4582,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -4605,7 +4606,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -4620,24 +4621,24 @@
       <c r="H9" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4668,21 +4669,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -4691,10 +4692,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -4702,7 +4703,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -4725,7 +4726,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -4746,7 +4747,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -4762,10 +4763,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -4786,7 +4787,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -4802,10 +4803,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -4820,14 +4821,14 @@
       <c r="H10" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4858,21 +4859,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -4881,10 +4882,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -4892,7 +4893,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -4912,10 +4913,10 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>40</v>
@@ -4931,13 +4932,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
@@ -4950,10 +4951,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
@@ -4962,7 +4963,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
@@ -4971,13 +4972,13 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -4993,10 +4994,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -5009,10 +5010,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>40</v>
@@ -5025,18 +5026,18 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
@@ -5049,13 +5050,13 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
@@ -5068,13 +5069,13 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -5087,10 +5088,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -5099,7 +5100,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>7</v>
@@ -5108,13 +5109,13 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -5126,14 +5127,14 @@
       <c r="H16" s="1"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5164,21 +5165,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -5187,10 +5188,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -5198,7 +5199,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -5221,7 +5222,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -5240,7 +5241,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -5259,7 +5260,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -5280,7 +5281,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -5297,24 +5298,24 @@
       <c r="H9" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5345,21 +5346,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -5368,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -5379,7 +5380,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -5402,7 +5403,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -5421,7 +5422,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -5440,7 +5441,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -5455,14 +5456,14 @@
       <c r="H8" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5493,21 +5494,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -5516,10 +5517,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -5527,7 +5528,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -5550,7 +5551,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -5569,7 +5570,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -5588,7 +5589,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -5607,7 +5608,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -5624,19 +5625,19 @@
       <c r="H9" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5667,21 +5668,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -5690,10 +5691,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -5701,7 +5702,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -5722,7 +5723,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -5741,7 +5742,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -5756,14 +5757,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5794,21 +5795,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -5817,21 +5818,21 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -5846,13 +5847,13 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -5865,13 +5866,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
@@ -5883,14 +5884,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5921,21 +5922,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -5944,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -5955,7 +5956,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -5978,7 +5979,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -5997,7 +5998,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -6016,7 +6017,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
@@ -6035,7 +6036,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
@@ -6054,7 +6055,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
@@ -6069,14 +6070,14 @@
       <c r="H10" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6107,21 +6108,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -6130,10 +6131,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -6141,7 +6142,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -6164,7 +6165,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -6183,7 +6184,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>40</v>
@@ -6202,7 +6203,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -6221,7 +6222,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -6242,7 +6243,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -6259,24 +6260,24 @@
       <c r="H10" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6307,21 +6308,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -6330,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -6341,7 +6342,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -6364,7 +6365,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -6385,7 +6386,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>40</v>
@@ -6404,7 +6405,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
@@ -6423,7 +6424,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -6439,10 +6440,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>321</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>40</v>
@@ -6458,10 +6459,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -6477,10 +6478,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
@@ -6496,10 +6497,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>40</v>
@@ -6515,10 +6516,10 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>40</v>
@@ -6534,10 +6535,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -6553,10 +6554,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>178</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -6572,10 +6573,10 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -6591,10 +6592,10 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>178</v>
+        <v>319</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
@@ -6610,13 +6611,13 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
@@ -6629,10 +6630,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
@@ -6648,10 +6649,10 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -6667,10 +6668,10 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -6685,14 +6686,14 @@
       <c r="H22" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
